--- a/lr2.xlsx
+++ b/lr2.xlsx
@@ -8,50 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1726a2788f902ac8/Desktop/Матан/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{78BCDEEE-F6FC-4A81-AE57-8A36D951C7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{692CD2F1-8702-4F83-AD54-E464E8F1A2E7}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{78BCDEEE-F6FC-4A81-AE57-8A36D951C7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D0ABA44-535A-473B-941B-BA28106B8FBC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E99499EC-B111-4230-BFEB-CDC1EDD25F05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Основа" sheetId="2" r:id="rId1"/>
+    <sheet name="Методом поиска решения" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$C$6:$D$6</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$E$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$E$11</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$E$9</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$E$14</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">71</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">53</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Методом поиска решения'!$C$6:$D$6</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Методом поиска решения'!$E$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Методом поиска решения'!$E$11</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Методом поиска решения'!$E$9</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Методом поиска решения'!$E$14</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">71</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">53</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>Вектора решений</t>
   </si>
@@ -101,13 +102,49 @@
   </si>
   <si>
     <t>z=</t>
+  </si>
+  <si>
+    <t>Исходные данные</t>
+  </si>
+  <si>
+    <t>Базис</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>Вектор свободных членов (ВСЧ)</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Z=x1+7x2+0x3+0x4+0x5</t>
+  </si>
+  <si>
+    <t>уже в базисе</t>
+  </si>
+  <si>
+    <t>Z=1*8+5*7=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +153,51 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF663300"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6" tint="0.39997558519241921"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +222,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -222,11 +308,224 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,16 +545,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -274,6 +649,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E3EC29F-5A66-4228-BA42-700FFDE676C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="228600"/>
+          <a:ext cx="1158240" cy="1158240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>109909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EC4AC4-3A13-696C-C1AD-82A8845E63D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1341120"/>
+          <a:ext cx="1584960" cy="711889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -320,6 +788,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,10 +1110,618 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A5D8DC-B7A3-4F43-A010-99C1EBA5679A}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="11" max="11" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
+        <v>4</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="20">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="25">
+        <v>7</v>
+      </c>
+      <c r="F5" s="26">
+        <v>3</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0</v>
+      </c>
+      <c r="I5" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29">
+        <v>7</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>4</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <f>K12/E12</f>
+        <v>53</v>
+      </c>
+      <c r="K12" s="19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <f>K13/E13</f>
+        <v>3</v>
+      </c>
+      <c r="K13" s="24">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="25">
+        <v>7</v>
+      </c>
+      <c r="F14" s="26">
+        <v>3</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="13">
+        <f>K14/E14</f>
+        <v>10.142857142857142</v>
+      </c>
+      <c r="K14" s="33">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <v>7</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="15">
+        <f>E12-E20</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" ref="F19:K19" si="0">F12-F20</f>
+        <v>5</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <f>K19/F19</f>
+        <v>10</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="20">
+        <f>E13</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" ref="F20:K20" si="1">F13</f>
+        <v>-1</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="25">
+        <f>E14-7*E20</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" ref="F21:K21" si="2">F14-7*F20</f>
+        <v>10</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="I21" s="25">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" ref="J20:J21" si="3">K21/F21</f>
+        <v>5</v>
+      </c>
+      <c r="K21" s="25">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="29">
+        <f>E15-E20*$E$15</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="29">
+        <f t="shared" ref="F22:K22" si="4">F15-F20*$E$15</f>
+        <v>8</v>
+      </c>
+      <c r="G22" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="29">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="I22" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C26" s="32"/>
+      <c r="D26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="20">
+        <f>E19-E29*$F$19</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="20">
+        <f>F19-F29*$F$19</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
+        <f t="shared" ref="G27:K27" si="5">G19-G29*$F$19</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="I27" s="20">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D28" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="20">
+        <f>E20-E29*$F$20</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="20">
+        <f>F20-F29*$F$20</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="20">
+        <f t="shared" ref="G28:K28" si="6">G20-G29*$F$20</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I28" s="20">
+        <f t="shared" si="6"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="25">
+        <f>E21/$F$21</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="25">
+        <f t="shared" ref="F29:K29" si="7">F21/$F$21</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
+        <f t="shared" si="7"/>
+        <v>-0.7</v>
+      </c>
+      <c r="I29" s="25">
+        <f t="shared" si="7"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="29">
+        <f>E22-E29*$F$22</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="29">
+        <f t="shared" ref="F30:K30" si="8">F22-F29*$F$22</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="29">
+        <f t="shared" si="8"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I30" s="29">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29">
+        <f t="shared" si="8"/>
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="1">
+        <f>K29*7+K28*1</f>
+        <v>43</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D34:E34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C42FA0-E23A-4B1E-B3FA-BDACC78D3AC3}">
   <dimension ref="B4:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -655,10 +1735,10 @@
     <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
-      <c r="C5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -787,7 +1867,7 @@
       <c r="D13" s="3">
         <v>7</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <f>C13*C7+D13*D7</f>
         <v>43.000000071972941</v>
       </c>
@@ -804,7 +1884,7 @@
       <c r="D14" s="3">
         <v>7</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <f>C13*C6+D13*D6</f>
         <v>88.999999999999986</v>
       </c>
